--- a/data/trans_bre/P9_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,61</t>
+          <t>-2,44; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,58</t>
+          <t>-2,44; 1,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,51%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,03%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,66</t>
+          <t>-0,7; 1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,69</t>
+          <t>-0,7; 1,2</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,32</t>
+          <t>-0,77; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,38</t>
+          <t>-0,77; 2,56</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-4,32%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,33</t>
+          <t>-6,68; 0,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 6,09</t>
+          <t>-8,72; 0,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,39</t>
+          <t>-6,85; 0,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,78</t>
+          <t>-8,94; -0,01</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,03</t>
+          <t>-1,64; 0,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,86</t>
+          <t>-1,91; -0,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,03</t>
+          <t>-1,65; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,87</t>
+          <t>-1,91; -0,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.04458725751717019</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.0004484224655800598</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.437808712717663</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="6" t="n">
+        <v>-0.02438555487588882</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.168775870924622</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="6" t="n">
+        <v>0.01182559345479709</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,55%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 0,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5530387718428176</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.5495250094919024</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.005530387718428176</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.005495250094919024</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.109721671084507</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.054757810063423</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03109721671084507</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.03054757810063423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +708,111 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 1,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 1,2</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 2,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,97</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 2,56</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.3240866708008383</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.09001503875936123</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.003251404075230079</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.0009041942963000573</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,11%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-4,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7233786392725969</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.007234238005116445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 0,94</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 0,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 0,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; -0,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.739291689444635</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.728422867033444</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01770222778136136</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.01755021961935921</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +820,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,95%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3892054235871134</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.4637374872925482</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.003907261509580152</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.004678949607836457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 0,05</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; -0,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 0,05</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; -0,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.8653432101484738</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.008637623245982513</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.929713950901432</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.168597682586917</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.01967696493500569</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.0222515162227653</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.995172949747804</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-1.887818931438123</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.0310852480843212</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.01980304201545608</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-6.681812201183561</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-6.732128648448908</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06845251267704364</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.06886569273781368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.9369594340561178</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.273123115126485</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.009766391956290244</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.05769370012659127</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.7216303427955428</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.5635173577659303</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.007273062786192827</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.005689242227967531</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.644918508602019</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.507256138042741</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.0165253495388847</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.01515140330712279</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.05320544994430174</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8808415164667063</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.0005371241517607201</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.008962116745977475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1010,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
